--- a/runtime_code.xlsx
+++ b/runtime_code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oregonstateuniversity-my.sharepoint.com/personal/blumsted_oregonstate_edu/Documents/Documents/projects/ots_coastal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blumsted\OneDrive - Oregon State University\Documents\projects\ots_coastal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{DE2DAE6A-4257-44BC-969C-D1C0E03A8253}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E7A4BC4C-29D6-42F0-9E99-C7DF8E562020}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{DE2DAE6A-4257-44BC-969C-D1C0E03A8253}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8FAF1685-32AF-49BD-B08F-1EA740703C68}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22065" windowHeight="11685" activeTab="1" xr2:uid="{4A9539D3-9EA4-4B85-AE6B-087C61B10F28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22065" windowHeight="11685" xr2:uid="{4A9539D3-9EA4-4B85-AE6B-087C61B10F28}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -67,21 +67,12 @@
     <t>CG</t>
   </si>
   <si>
-    <t>Ots37124-12267397</t>
-  </si>
-  <si>
     <t>CT</t>
   </si>
   <si>
     <t>TT</t>
   </si>
   <si>
-    <t>Ots37124-12270118</t>
-  </si>
-  <si>
-    <t>Ots37124-12272852</t>
-  </si>
-  <si>
     <t>Ots28_11070757</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>TA</t>
   </si>
   <si>
-    <t>Ots37124-12277401</t>
-  </si>
-  <si>
     <t>Ots28_11073668</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>AT</t>
   </si>
   <si>
-    <t>Ots37124-12310649</t>
-  </si>
-  <si>
     <t>Ots28_11160599</t>
   </si>
   <si>
@@ -191,6 +176,21 @@
   </si>
   <si>
     <t>DD</t>
+  </si>
+  <si>
+    <t>Ots37124.12267397</t>
+  </si>
+  <si>
+    <t>Ots37124.12270118</t>
+  </si>
+  <si>
+    <t>Ots37124.12272852</t>
+  </si>
+  <si>
+    <t>Ots37124.12277401</t>
+  </si>
+  <si>
+    <t>Ots37124.12310649</t>
   </si>
 </sst>
 </file>
@@ -613,9 +613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1EF030-1F62-4648-94BB-D14C4905DD65}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +665,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -698,12 +698,12 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -725,18 +725,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -758,18 +758,18 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -791,21 +791,21 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
@@ -824,18 +824,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
@@ -846,10 +846,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -857,18 +857,18 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
@@ -879,10 +879,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -890,18 +890,18 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>4</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
@@ -923,21 +923,21 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
@@ -956,21 +956,21 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
@@ -989,18 +989,18 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>4</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
@@ -1022,18 +1022,18 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>7</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>4</v>
@@ -1055,18 +1055,18 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>4</v>
@@ -1077,10 +1077,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1088,18 +1088,18 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>7</v>
@@ -1110,10 +1110,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1121,18 +1121,18 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>11</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>4</v>
@@ -1154,18 +1154,18 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>4</v>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1187,21 +1187,21 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>7</v>
@@ -1220,18 +1220,18 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>11</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>11</v>
@@ -1253,18 +1253,18 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>11</v>
@@ -1275,10 +1275,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1286,18 +1286,18 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>11</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>11</v>
@@ -1319,18 +1319,18 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>7</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>7</v>
@@ -1352,21 +1352,21 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>11</v>
@@ -1385,18 +1385,18 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>11</v>
@@ -1407,10 +1407,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1418,18 +1418,18 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" t="s">
@@ -1438,7 +1438,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" t="s">
@@ -1447,16 +1447,16 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>11</v>
@@ -1467,10 +1467,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -1478,18 +1478,18 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>11</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1511,18 +1511,18 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" t="s">
@@ -1531,7 +1531,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" t="s">
@@ -1540,16 +1540,16 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>11</v>
@@ -1560,10 +1560,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -1571,18 +1571,18 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>4</v>
@@ -1593,10 +1593,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -1604,21 +1604,21 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>4</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.25">
@@ -1675,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F81743-3036-46D2-B5B3-E5A8207C8BA4}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,16 +1692,16 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1718,10 +1718,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1738,35 +1738,35 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1778,175 +1778,175 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
@@ -1958,370 +1958,370 @@
         <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2339,6 +2339,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000A8F245DA945E941BA300CB2555E420C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e257695df3dc4d32f9665b0b776fe8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c1ec0e6f-da24-4d98-b86a-285152ec8c57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30fcb010dd263b9d9322ba4b3e01884c" ns3:_="">
     <xsd:import namespace="c1ec0e6f-da24-4d98-b86a-285152ec8c57"/>
@@ -2514,25 +2523,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20DC1567-15DA-4E10-8042-3E1EB8C7EF9B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="c1ec0e6f-da24-4d98-b86a-285152ec8c57"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
@@ -2540,6 +2540,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF61419C-FE3C-49E9-B879-052718E2D764}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75368CFF-2B1C-407C-BD3B-54B6CF332D8B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2555,12 +2563,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF61419C-FE3C-49E9-B879-052718E2D764}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>